--- a/www/terminologies/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -1859,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1959,20 +1965,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1994,42 +2008,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2051,234 +2065,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -2300,850 +2314,850 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3165,370 +3179,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3550,58 +3564,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3623,354 +3637,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3992,154 +4006,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4161,34 +4175,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -4210,66 +4224,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4291,218 +4305,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -17,12 +17,13 @@
     <sheet name="Include #7" r:id="rId11" sheetId="9"/>
     <sheet name="Include #8" r:id="rId12" sheetId="10"/>
     <sheet name="Include #9" r:id="rId13" sheetId="11"/>
+    <sheet name="Include #10" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -1732,6 +1733,15 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R359-SurspecialiteTransversale/FHIR/TRE-R359-SurspecialiteTransversale</t>
+  </si>
+  <si>
+    <t>CM0001</t>
+  </si>
+  <si>
+    <t>Certificat de décès</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/CodeSystem/tre-r394-competence-metier</t>
   </si>
 </sst>
 </file>
@@ -2300,6 +2310,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B106"/>

--- a/www/terminologies/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20241025120000</t>
+    <t>20251222120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,7 +73,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2025-12-22T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1730,6 +1730,12 @@
   </si>
   <si>
     <t>Urgences pédiatriques</t>
+  </si>
+  <si>
+    <t>SST27</t>
+  </si>
+  <si>
+    <t>Innovation et recherche en sciences biologiques et pharmaceutiques</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R359-SurspecialiteTransversale/FHIR/TRE-R359-SurspecialiteTransversale</t>
@@ -2063,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2291,18 +2297,26 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>569</v>
+      <c r="B30" t="s" s="2">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2332,10 +2346,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3">
@@ -2351,7 +2365,7 @@
         <v>235</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
